--- a/to_tag.xlsx
+++ b/to_tag.xlsx
@@ -3170,7 +3170,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>customization - negative</t>
+          <t xml:space="preserve">brand perception - neutral </t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>pricing - neutral</t>
+          <t xml:space="preserve">inventory - neutral </t>
         </is>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>shipping - negative</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>shipping - negative</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>pricing - neutral</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>pricing - neutral</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t xml:space="preserve">shipping - positive </t>
+          <t xml:space="preserve">brand perception - neutral </t>
         </is>
       </c>
     </row>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>customer service - positive</t>
+          <t>lol</t>
         </is>
       </c>
     </row>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>lol</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>shipping - negative</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t xml:space="preserve">shipping - positive </t>
+          <t>lol</t>
         </is>
       </c>
     </row>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>shipping - negative</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>customer service - neutral</t>
+          <t xml:space="preserve">brand perception - positive </t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>shipping - negative</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>shipping - negative</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -10336,7 +10336,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>inventory - neutral</t>
+          <t>pricing - neutral</t>
         </is>
       </c>
     </row>
@@ -10353,7 +10353,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>inventory - neutral</t>
+          <t>pricing - neutral</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>pricing - neutral</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -10914,7 +10914,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>customer service - positive</t>
+          <t>customer service - neutral</t>
         </is>
       </c>
     </row>
@@ -10999,7 +10999,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>lol</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -11356,7 +11356,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>brand perception - neutral</t>
+          <t>lol</t>
         </is>
       </c>
     </row>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>shipping - negative</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>brand perception - neutral</t>
+          <t>lol</t>
         </is>
       </c>
     </row>
@@ -11458,7 +11458,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>customization - negative</t>
+          <t xml:space="preserve">brand perception - neutral </t>
         </is>
       </c>
     </row>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>customization - negative</t>
+          <t xml:space="preserve">brand perception - neutral </t>
         </is>
       </c>
     </row>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>shipping - negative</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>suggestion</t>
+          <t xml:space="preserve">product - negative </t>
         </is>
       </c>
     </row>
@@ -11747,7 +11747,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>customization - negative</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -12087,7 +12087,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>pricing - neutral</t>
+          <t xml:space="preserve">brand perception - neutral </t>
         </is>
       </c>
     </row>
@@ -12172,7 +12172,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>pricing - neutral</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>shipping - negative</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>shipping - negative</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -12750,7 +12750,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>pricing - positive</t>
+          <t>pricing - neutral</t>
         </is>
       </c>
     </row>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>pricing - positive</t>
+          <t>pricing - neutral</t>
         </is>
       </c>
     </row>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>lol</t>
+          <t xml:space="preserve">brand perception - neutral </t>
         </is>
       </c>
     </row>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>shipping - negative</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -15640,7 +15640,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>shipping - negative</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -15674,7 +15674,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>brand perception - neutral</t>
+          <t>lol</t>
         </is>
       </c>
     </row>
@@ -17170,7 +17170,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>inventory - neutral</t>
+          <t>pricing - neutral</t>
         </is>
       </c>
     </row>
@@ -19261,7 +19261,7 @@
       </c>
       <c r="C1045" t="inlineStr">
         <is>
-          <t xml:space="preserve">brand perception - neutral </t>
+          <t>pricing - neutral</t>
         </is>
       </c>
     </row>
@@ -19720,7 +19720,7 @@
       </c>
       <c r="C1072" t="inlineStr">
         <is>
-          <t>inventory - neutral</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -20485,7 +20485,7 @@
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>pricing - positive</t>
+          <t>pricing - neutral</t>
         </is>
       </c>
     </row>
@@ -21301,7 +21301,7 @@
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>lol</t>
+          <t>pricing - neutral</t>
         </is>
       </c>
     </row>
@@ -21777,7 +21777,7 @@
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>shipping - negative</t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -25092,7 +25092,7 @@
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>pricing - neutral</t>
+          <t xml:space="preserve">brand perception - neutral </t>
         </is>
       </c>
     </row>
@@ -26112,7 +26112,7 @@
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t xml:space="preserve">brand perception - neutral </t>
+          <t xml:space="preserve">shipping - positive </t>
         </is>
       </c>
     </row>
@@ -26231,7 +26231,7 @@
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>suggestion</t>
+          <t xml:space="preserve">product - negative </t>
         </is>
       </c>
     </row>
@@ -26452,7 +26452,7 @@
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>customization - negative</t>
+          <t xml:space="preserve">brand perception - neutral </t>
         </is>
       </c>
     </row>
